--- a/biology/Zoologie/Damier_gorgone/Damier_gorgone.xlsx
+++ b/biology/Zoologie/Damier_gorgone/Damier_gorgone.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Chlosyne gorgone
 Le Damier gorgone (Chlosyne gorgone) est une espèce de lépidoptères de la famille des Nymphalidae, de la sous-famille des Nymphalinae et du genre Chlosyne.
@@ -512,15 +524,12 @@
           <t>Dénomination</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Chlosyne gorgone a été nommé par Jakob Hübner en 1810.
-Synonymes : Dryas gorgone Hübner, [1810][1].
-Sous-espèces
-Chlosyne gorgone gorgone
-Chlosyne gorgone carlota (Reakirt, 1866) la seule présente au Canada[1].
-Noms vernaculaires
-Le Damier gorgone se nomme en anglais Gorgone Crescentspot[1].
+Synonymes : Dryas gorgone Hübner, .
 </t>
         </is>
       </c>
@@ -546,17 +555,19 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Description</t>
+          <t>Dénomination</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Le Damier gorgone est un papillon orange et noir de taille moyenne. Son envergure varie entre 32 et 45 mm
-Le dessus présente aux antérieures une bande marginale noire, une ligne de grands damiers orange, puis de petits damiers orange, alors qu'aux postérieures, fait suite à la bande marginale noire une bande submarginale de damiers orange centrés d'un point noir, puis la ligne de grands damiers orange comme aux antérieures et une partie basale foncée.
-Le revers des antérieures est orange bordé de chevrons blancs alors que les postérieures sont argentées avec une ligne médiane de chevrons blancs[2].
-Chenille
-La chenille est généralement noire, mais il existe une forme de couleur orange[3].
-</t>
+          <t>Sous-espèces</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Chlosyne gorgone gorgone
+Chlosyne gorgone carlota (Reakirt, 1866) la seule présente au Canada.</t>
         </is>
       </c>
     </row>
@@ -581,16 +592,18 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Biologie</t>
+          <t>Dénomination</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t xml:space="preserve">Période de vol et hivernation
-L'imago vole en juillet août en une génération dans le nord de son aire, en deux générations de mai à septembre au centre et en trois générations d'avril à septembre au sud de son aire[4].
-Il hiberne au troisième ou au quatrième stade de la chenille[2].
-Plantes hôtes
-Les plantes hôtes de la chenille sont diverses : Helianthus, Ambrosia trifida, Iva xanthifolia, Viguiera multiflora et pour la sous-espèce Lippia lanceolata, Lippia nodiflora, Helianthus annuus, Linaria vulgaris, Ambrosia trifida, des Lysimachia et des Eriogonum [1].
+          <t>Noms vernaculaires</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le Damier gorgone se nomme en anglais Gorgone Crescentspot.
 </t>
         </is>
       </c>
@@ -616,16 +629,235 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
+          <t>Description</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le Damier gorgone est un papillon orange et noir de taille moyenne. Son envergure varie entre 32 et 45 mm
+Le dessus présente aux antérieures une bande marginale noire, une ligne de grands damiers orange, puis de petits damiers orange, alors qu'aux postérieures, fait suite à la bande marginale noire une bande submarginale de damiers orange centrés d'un point noir, puis la ligne de grands damiers orange comme aux antérieures et une partie basale foncée.
+Le revers des antérieures est orange bordé de chevrons blancs alors que les postérieures sont argentées avec une ligne médiane de chevrons blancs.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Damier_gorgone</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Damier_gorgone</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Description</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Chenille</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La chenille est généralement noire, mais il existe une forme de couleur orange.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Damier_gorgone</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Damier_gorgone</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Biologie</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Période de vol et hivernation</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'imago vole en juillet août en une génération dans le nord de son aire, en deux générations de mai à septembre au centre et en trois générations d'avril à septembre au sud de son aire.
+Il hiberne au troisième ou au quatrième stade de la chenille.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Damier_gorgone</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Damier_gorgone</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Biologie</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Plantes hôtes</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les plantes hôtes de la chenille sont diverses : Helianthus, Ambrosia trifida, Iva xanthifolia, Viguiera multiflora et pour la sous-espèce Lippia lanceolata, Lippia nodiflora, Helianthus annuus, Linaria vulgaris, Ambrosia trifida, des Lysimachia et des Eriogonum .
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Damier_gorgone</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Damier_gorgone</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
           <t>Écologie et distribution</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Il est présent en Amérique du Nord, au Canada en Alberta et Ontario, dans tout le centre des États-Unis, des Montagnes Rocheuses aux Appalaches, du Dakota du Nord au Texas et de l'Utah au Kentucky[1],[2].
-Biotope
-Il réside dans les prairies[3].
-Protection
-Pas de statut de protection particulier[2].
+      <c r="F10" t="inlineStr"/>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il est présent en Amérique du Nord, au Canada en Alberta et Ontario, dans tout le centre des États-Unis, des Montagnes Rocheuses aux Appalaches, du Dakota du Nord au Texas et de l'Utah au Kentucky,.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Damier_gorgone</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Damier_gorgone</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>Écologie et distribution</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Biotope</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il réside dans les prairies.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Damier_gorgone</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Damier_gorgone</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>Écologie et distribution</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>Protection</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr"/>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Pas de statut de protection particulier.
 </t>
         </is>
       </c>
